--- a/Python-Topics.xlsx
+++ b/Python-Topics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeep/Documents/python_tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4E354-7C96-9144-A575-813B50DF9FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE515F1E-7D76-874D-AC75-A3F6457D6C44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Day</t>
   </si>
@@ -56,13 +56,6 @@
   </si>
   <si>
     <t>Day-9</t>
-  </si>
-  <si>
-    <t>1. Object Oriented Programming (Cont..).
-         * Attribute access. (Encapsulation)
-         * Abstract Base Class (ABC) and @abstractmethod.
-         * Introduction to Magic Methods.
-         * Customizing the object behavior using Magic Methods.</t>
   </si>
   <si>
     <t>SELENIUM</t>
@@ -144,17 +137,8 @@
             * List Comprehension.</t>
   </si>
   <si>
-    <t>1. Comprehensions.
-            * Dictionary Comprehension.
-            * Set Comprehension.</t>
-  </si>
-  <si>
     <t>1. Anonymous functions / lambda expressions.
 2. Custom sorting of nested Python Data Structures.</t>
-  </si>
-  <si>
-    <t>1. Exception Handling
-2. JSON file Parsing using requests module.</t>
   </si>
   <si>
     <t>1. Decorators.
@@ -255,6 +239,27 @@
            * Processing a large data file using Generator.     
            * Processing an infinetly long iterable using Generator.
            * Demo on Processing a Live log file using Generators.</t>
+  </si>
+  <si>
+    <t>1. deque object and different operations that can be performed using deque's</t>
+  </si>
+  <si>
+    <t>1. Comprehensions.
+            * Dictionary Comprehension.
+            * Set Comprehension.
+            * map and filter, differences between map and filter</t>
+  </si>
+  <si>
+    <t>2. Object Oriented Programming (Cont..).
+         * Attribute access. (Encapsulation)
+         * Abstract Base Class (ABC) and @abstractmethod.
+         * Introduction to Magic Methods.
+         * Customizing the object behavior using Magic Methods.</t>
+  </si>
+  <si>
+    <t>1. Exception Handling
+2. JSON file Parsing using requests module.
+3. Itertools module</t>
   </si>
 </sst>
 </file>
@@ -731,7 +736,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="10"/>
     </row>
@@ -740,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="80" x14ac:dyDescent="0.2">
@@ -748,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -756,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -764,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
@@ -772,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="80" x14ac:dyDescent="0.2">
@@ -780,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -788,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -796,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="80" x14ac:dyDescent="0.2">
@@ -804,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -812,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -825,11 +830,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954EF45C-34FE-EE45-A042-4D212A913D71}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="45.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -843,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.2">
@@ -855,7 +858,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43" x14ac:dyDescent="0.2">
@@ -864,7 +867,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99" x14ac:dyDescent="0.2">
@@ -873,7 +876,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="99" x14ac:dyDescent="0.2">
@@ -882,7 +885,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71" x14ac:dyDescent="0.2">
@@ -891,106 +894,106 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="113" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="71" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="113" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="71" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="141" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="141" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="99" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="99" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="99" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="99" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="113" x14ac:dyDescent="0.2">
@@ -999,43 +1002,50 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="99" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="71" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="4" t="s">
-        <v>33</v>
+      <c r="C22" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Python-Topics.xlsx
+++ b/Python-Topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeep/Documents/python_tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE515F1E-7D76-874D-AC75-A3F6457D6C44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604C6046-29BB-6844-8FB3-03947E4C6FA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Day</t>
   </si>
@@ -59,29 +59,10 @@
   </si>
   <si>
     <t>SELENIUM</t>
-  </si>
-  <si>
-    <t>1. Architecture of Selenium.
-2. Basic Browser Actions.
-3. Executing Selenium Scripts on different browsers.
-4. Introduction to basics of HTML.
-4. Different Selenium locators.</t>
-  </si>
-  <si>
-    <t>1. Working with Multiple Elements.
-2. Working with Standard and Custom listbox</t>
   </si>
   <si>
     <t>1. WedDriver Wait.
 2. Working with Menu's</t>
-  </si>
-  <si>
-    <t>1. Simulating Keyboard Actions.
-2. Handling Multiple Windows.
-         * Handling HTML popup's.
-         * Handling JavaScript Alerts.
-         * Handling Push Notifications.
-         * Handling windows popup's.</t>
   </si>
   <si>
     <t>1. Working with Frames.
@@ -156,10 +137,6 @@
           * Class and Static Methods.
           * Alternate constructor mechanism.
           * Inheriting classes and different variants on it.</t>
-  </si>
-  <si>
-    <t>1. Getters and Setters in Python.
-2. Property Descreptors</t>
   </si>
   <si>
     <t>1. Iterator protocol.
@@ -174,13 +151,6 @@
        * Union.
        * Intersection.
        * Difference.</t>
-  </si>
-  <si>
-    <t>1. Memory and Speed Comparision between  Lists vs Tuples vs sets
-2. Concept of Sequences.
-3. Unpacking Sequences.
-4. Looping and Conditionals.
-5. Booleans.</t>
   </si>
   <si>
     <t>1. Working with Tuples.
@@ -211,14 +181,6 @@
        * Matching Email patterns.</t>
   </si>
   <si>
-    <t>1. Working with Strings in Python.
-              * Indexing.
-              * Slicing.
-              * Various in-built methods.
-              * Different ways of String formatting (.formt(), f strings, right justification and left justification)
-              * Immutability of Strings</t>
-  </si>
-  <si>
     <t>1. File Handling.
         * Different modes of reading text files.
         * Reading and extracting information from log files (Webserver log, Error logs etc)
@@ -232,22 +194,71 @@
            * Writing class decorators. (Will be covered after OOP)</t>
   </si>
   <si>
-    <t>1. Introduction to Generators.
-           * Generators.
-           * Difference between Generators and Functions.
-           *  When to use Generators/Iterators.
-           * Processing a large data file using Generator.     
-           * Processing an infinetly long iterable using Generator.
-           * Demo on Processing a Live log file using Generators.</t>
-  </si>
-  <si>
-    <t>1. deque object and different operations that can be performed using deque's</t>
-  </si>
-  <si>
     <t>1. Comprehensions.
             * Dictionary Comprehension.
             * Set Comprehension.
             * map and filter, differences between map and filter</t>
+  </si>
+  <si>
+    <t>1. Getters and Setters in Python.
+2. Property Descriptors</t>
+  </si>
+  <si>
+    <t>1. deque object and different operations that can be performed using deque's
+2. defaultdict</t>
+  </si>
+  <si>
+    <t>1. Itertools module
+2. random module
+3. datetime module</t>
+  </si>
+  <si>
+    <t>1. Exception Handling
+2. JSON file Parsing using requests module.</t>
+  </si>
+  <si>
+    <t>1. Difference between Lists and Tuples.
+2. Which is more memory efficient? Lists vs Tuples. Why?</t>
+  </si>
+  <si>
+    <t>1. Introduction to Generators.
+           * Generators.
+           * Difference between Generators and Functions.
+           * When to use Generators/Iterators.
+           * Processing a large data file using Generator.     
+           * Processing an infinetly long iterable using Generator.
+           * Demo on Processing a Live log file using Generators.</t>
+  </si>
+  <si>
+    <t>1. Architecture of Selenium.
+2. Basic Browser Actions. (Locators, title, currenturl, refresh, forward, minumize, FE, FES)
+3. Executing Selenium Scripts on different browsers.
+4. Basic WebElement Actions. (get_attribute, text, is_enabled, is_disabled, get_css, send_keys, click, select)
+5. DropDown action
+5. Key mouse Actions
+4. Complex xpath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Working with Multiple Elements.
+2. Working with Standard and Custom listbox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2. Handling Multiple Windows.
+         * Handling HTML popup's.
+         * Handling JavaScript Alerts.
+         * Handling Push Notifications.
+         * Handling windows popup's.
+            File Download / attach popup</t>
+  </si>
+  <si>
+    <t>1. Membership Speed Comparision between  Lists vs Tuples vs sets (which datastructure is faster in membership testing)
+2. Concept of Sequences.
+3. Unpacking Sequences.
+4. Looping and Conditionals.
+     * iterating an iterable using for loop (with and without using range function)
+     * getting index of items in an iterable using enumerate function.
+5. Booleans. (Various conditions which evaluates to boolean True and False)</t>
   </si>
   <si>
     <t>2. Object Oriented Programming (Cont..).
@@ -257,9 +268,12 @@
          * Customizing the object behavior using Magic Methods.</t>
   </si>
   <si>
-    <t>1. Exception Handling
-2. JSON file Parsing using requests module.
-3. Itertools module</t>
+    <t>1. Working with Strings in Python.
+              * Indexing.
+              * Slicing.
+              * Various in-built methods.
+              * Different ways of String formatting (.formt(), f strings, right justification and left justification)
+              * Immutability of Strings.</t>
   </si>
 </sst>
 </file>
@@ -745,15 +759,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -761,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -769,15 +783,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="80" x14ac:dyDescent="0.2">
@@ -785,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -793,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -801,7 +815,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="80" x14ac:dyDescent="0.2">
@@ -809,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -817,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -830,9 +844,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954EF45C-34FE-EE45-A042-4D212A913D71}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="45.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -846,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.2">
@@ -858,7 +874,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43" x14ac:dyDescent="0.2">
@@ -867,7 +883,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99" x14ac:dyDescent="0.2">
@@ -876,7 +892,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="99" x14ac:dyDescent="0.2">
@@ -885,7 +901,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="71" x14ac:dyDescent="0.2">
@@ -894,16 +910,16 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="113" x14ac:dyDescent="0.2">
@@ -912,16 +928,16 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="71" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="113" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.2">
@@ -930,7 +946,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="57" x14ac:dyDescent="0.2">
@@ -939,7 +955,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="141" x14ac:dyDescent="0.2">
@@ -948,7 +964,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.2">
@@ -957,95 +973,111 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="99" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="99" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="99" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="113" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="99" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="99" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="113" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="71" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="99" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="71" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="43" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="5" t="s">
-        <v>43</v>
+      <c r="C22" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
-        <v>30</v>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Python-Topics.xlsx
+++ b/Python-Topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeep/Documents/python_tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604C6046-29BB-6844-8FB3-03947E4C6FA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E40DA-2725-FD42-ABBB-6E3FBD93E923}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Day</t>
   </si>
@@ -114,10 +114,6 @@
             * Concept of deep and shallow copy.</t>
   </si>
   <si>
-    <t>1. Comprehensions.
-            * List Comprehension.</t>
-  </si>
-  <si>
     <t>1. Anonymous functions / lambda expressions.
 2. Custom sorting of nested Python Data Structures.</t>
   </si>
@@ -141,16 +137,6 @@
   <si>
     <t>1. Iterator protocol.
            * Writing Custom Iterators using iterator protocol.</t>
-  </si>
-  <si>
-    <t>1. Working with Dictionaries in Python.
-2. Various Dictionary operations.
-3. Merging dictionaries.
-4. Sets
-       * Adding/removing items. (add, remove, discard)
-       * Union.
-       * Intersection.
-       * Difference.</t>
   </si>
   <si>
     <t>1. Working with Tuples.
@@ -171,16 +157,6 @@
              * Functions as first class objects.</t>
   </si>
   <si>
-    <t>1. Regular Expressions.
-       * Matching vowels patterns.
-       * Matching file extensions patterns.
-       * Matching date patterns.
-       * Matching URL patterns.
-       * Matching Phone Number patterns.
-       * Matching IP Address patterns.
-       * Matching Email patterns.</t>
-  </si>
-  <si>
     <t>1. File Handling.
         * Different modes of reading text files.
         * Reading and extracting information from log files (Webserver log, Error logs etc)
@@ -190,31 +166,13 @@
       * Using Collections module to Analyse COVID data around the world.</t>
   </si>
   <si>
-    <t xml:space="preserve">           * Writing function decorators.
-           * Writing class decorators. (Will be covered after OOP)</t>
-  </si>
-  <si>
-    <t>1. Comprehensions.
-            * Dictionary Comprehension.
-            * Set Comprehension.
-            * map and filter, differences between map and filter</t>
-  </si>
-  <si>
     <t>1. Getters and Setters in Python.
 2. Property Descriptors</t>
-  </si>
-  <si>
-    <t>1. deque object and different operations that can be performed using deque's
-2. defaultdict</t>
   </si>
   <si>
     <t>1. Itertools module
 2. random module
 3. datetime module</t>
-  </si>
-  <si>
-    <t>1. Exception Handling
-2. JSON file Parsing using requests module.</t>
   </si>
   <si>
     <t>1. Difference between Lists and Tuples.
@@ -252,15 +210,6 @@
             File Download / attach popup</t>
   </si>
   <si>
-    <t>1. Membership Speed Comparision between  Lists vs Tuples vs sets (which datastructure is faster in membership testing)
-2. Concept of Sequences.
-3. Unpacking Sequences.
-4. Looping and Conditionals.
-     * iterating an iterable using for loop (with and without using range function)
-     * getting index of items in an iterable using enumerate function.
-5. Booleans. (Various conditions which evaluates to boolean True and False)</t>
-  </si>
-  <si>
     <t>2. Object Oriented Programming (Cont..).
          * Attribute access. (Encapsulation)
          * Abstract Base Class (ABC) and @abstractmethod.
@@ -274,6 +223,56 @@
               * Various in-built methods.
               * Different ways of String formatting (.formt(), f strings, right justification and left justification)
               * Immutability of Strings.</t>
+  </si>
+  <si>
+    <t>1. Working with Dictionaries in Python.
+2. Various Dictionary operations.
+3. Sets
+       * Adding/removing items. (add, remove, discard)
+       * Union.
+       * Intersection.
+       * Difference.</t>
+  </si>
+  <si>
+    <t>1. Concept of Sequences.
+2. Unpacking Sequences.
+3. Booleans. (Various conditions which evaluates to boolean True and False)
+4. Looping and Conditionals.
+5. Membership Speed Comparision between  Lists vs Tuples vs sets (which datastructure is faster in membership testing)</t>
+  </si>
+  <si>
+    <t>1. Comprehensions.
+            * List Comprehension.
+            * Dictionary Comprehension.
+            * Set Comprehension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           * Writing function decorators.
+           * Writing class decorators. (Will be covered after OOP)
+           * Parameterised decorators.</t>
+  </si>
+  <si>
+    <t>1. map and filter, differences between map and filter
+2. deque object and different operations that can be performed using deque's
+3. Namedtuples
+4. Exception Handling</t>
+  </si>
+  <si>
+    <t>1.JSON file Parsing using requests module
+2. Itertools module
+3. random module
+4. datetime module</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Regular Expressions.
+       * Matching vowels patterns.
+       * Matching file extensions patterns.
+       * Matching date patterns.
+       * Matching URL patterns.
+       * Matching Phone Number patterns.
+       * Matching IP Address patterns.
+       * Matching Email patterns.
+       * Matching PAN Card patterns.</t>
   </si>
 </sst>
 </file>
@@ -341,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -373,24 +372,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,9 +395,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -749,10 +732,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -767,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -775,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -791,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="80" x14ac:dyDescent="0.2">
@@ -846,9 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954EF45C-34FE-EE45-A042-4D212A913D71}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="45.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -858,13 +839,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -892,7 +873,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="99" x14ac:dyDescent="0.2">
@@ -910,7 +891,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.2">
@@ -919,55 +900,55 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="113" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="99" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="113" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="141" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="141" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -976,90 +957,92 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:3" ht="43" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="99" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="99" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="99" x14ac:dyDescent="0.2">
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="127" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="113" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="99" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="71" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>17</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="99" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="71" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>16</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="7" t="s">
-        <v>34</v>
+      <c r="C22" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="5" t="s">
-        <v>37</v>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="43" x14ac:dyDescent="0.2">
@@ -1068,7 +1051,7 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.2">
@@ -1077,7 +1060,7 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Python-Topics.xlsx
+++ b/Python-Topics.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeep/Documents/python_tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E40DA-2725-FD42-ABBB-6E3FBD93E923}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196BFC15-35CF-4945-A4C0-B8054A1CD10B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SELENIUM" sheetId="6" r:id="rId1"/>
-    <sheet name="PYTHON" sheetId="7" r:id="rId2"/>
+    <sheet name="PYTHON" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,70 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Day</t>
   </si>
   <si>
-    <t>Day-1</t>
-  </si>
-  <si>
-    <t>Day-2</t>
-  </si>
-  <si>
-    <t>Day-3</t>
-  </si>
-  <si>
-    <t>Day-4</t>
-  </si>
-  <si>
-    <t>Day-5</t>
-  </si>
-  <si>
-    <t>Day-6</t>
-  </si>
-  <si>
-    <t>Day-7</t>
-  </si>
-  <si>
-    <t>Day-8</t>
-  </si>
-  <si>
-    <t>Day-9</t>
-  </si>
-  <si>
-    <t>SELENIUM</t>
-  </si>
-  <si>
-    <t>1. WedDriver Wait.
-2. Working with Menu's</t>
-  </si>
-  <si>
-    <t>1. Working with Frames.
-2. Capturing Screenshots.
-3. Discuss common webdriver exceptions.
-4. Designing Generic Functions.
-5. Reading from excel using xlrd.</t>
-  </si>
-  <si>
-    <t>1. Introduction to Unittesting using PyTest unittest module.
-2. POM design approach for automating webapplications.</t>
-  </si>
-  <si>
-    <t>1. Installation and Configuration of Git.
-2. Introduction to GitHub.
-3. Basic Git Commands.
-4. Creating Github account and pushing all the scripts to Github.
-5. Cloning GitHub project.</t>
-  </si>
-  <si>
-    <t>Introduction to Build Automation Tool PyBuilder and Jenkins</t>
-  </si>
-  <si>
     <t>Topics</t>
-  </si>
-  <si>
-    <t>1. Automating few end-to-end scenarios on demo shopping cart site using POM design approach.</t>
   </si>
   <si>
     <t>Hrs</t>
@@ -170,11 +111,6 @@
 2. Property Descriptors</t>
   </si>
   <si>
-    <t>1. Itertools module
-2. random module
-3. datetime module</t>
-  </si>
-  <si>
     <t>1. Difference between Lists and Tuples.
 2. Which is more memory efficient? Lists vs Tuples. Why?</t>
   </si>
@@ -188,28 +124,6 @@
            * Demo on Processing a Live log file using Generators.</t>
   </si>
   <si>
-    <t>1. Architecture of Selenium.
-2. Basic Browser Actions. (Locators, title, currenturl, refresh, forward, minumize, FE, FES)
-3. Executing Selenium Scripts on different browsers.
-4. Basic WebElement Actions. (get_attribute, text, is_enabled, is_disabled, get_css, send_keys, click, select)
-5. DropDown action
-5. Key mouse Actions
-4. Complex xpath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Working with Multiple Elements.
-2. Working with Standard and Custom listbox </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-2. Handling Multiple Windows.
-         * Handling HTML popup's.
-         * Handling JavaScript Alerts.
-         * Handling Push Notifications.
-         * Handling windows popup's.
-            File Download / attach popup</t>
-  </si>
-  <si>
     <t>2. Object Oriented Programming (Cont..).
          * Attribute access. (Encapsulation)
          * Abstract Base Class (ABC) and @abstractmethod.
@@ -247,11 +161,6 @@
             * Set Comprehension.</t>
   </si>
   <si>
-    <t xml:space="preserve">           * Writing function decorators.
-           * Writing class decorators. (Will be covered after OOP)
-           * Parameterised decorators.</t>
-  </si>
-  <si>
     <t>1. map and filter, differences between map and filter
 2. deque object and different operations that can be performed using deque's
 3. Namedtuples
@@ -262,6 +171,11 @@
 2. Itertools module
 3. random module
 4. datetime module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           * Writing function decorators.
+           * Writing class decorators. (Will be covered after OOP)
+           * Parameterised decorators.</t>
   </si>
   <si>
     <t xml:space="preserve"> Regular Expressions.
@@ -279,16 +193,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -340,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -363,46 +269,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -718,352 +606,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698DE460-C5C4-4646-B5C2-4A84BCEDE8F7}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954EF45C-34FE-EE45-A042-4D212A913D71}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="64.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="144" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="112" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="80" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954EF45C-34FE-EE45-A042-4D212A913D71}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="45.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="74.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="99" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="99" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="71" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="99" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="141" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="99" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="99" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="127" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="99" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="71" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="99" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="99" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="71" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="99" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="141" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="43" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="99" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="99" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="127" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="99" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="71" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="43" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Python-Topics.xlsx
+++ b/Python-Topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeep/Documents/python_tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196BFC15-35CF-4945-A4C0-B8054A1CD10B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBE3040-8B4A-7944-9FDF-63CE9F89778A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,17 +87,6 @@
         * Immutability of Tuples.</t>
   </si>
   <si>
-    <t>1. Functions in Python.
-             * Calling functions using positional arguments.
-             * Calling functions using keyword arguments.
-             * Calling functions using combination of both positional and keyword arguments.
-             * Functions with default arguments.
-             * Keyword ONLY arguments and positional ONLY arguments.
-             * Functions with variable number of positional and keyword arguments (*args **kwargs)
-             * Behavior of mutable and immutable objects inside functions.
-             * Functions as first class objects.</t>
-  </si>
-  <si>
     <t>1. File Handling.
         * Different modes of reading text files.
         * Reading and extracting information from log files (Webserver log, Error logs etc)
@@ -131,14 +120,6 @@
          * Customizing the object behavior using Magic Methods.</t>
   </si>
   <si>
-    <t>1. Working with Strings in Python.
-              * Indexing.
-              * Slicing.
-              * Various in-built methods.
-              * Different ways of String formatting (.formt(), f strings, right justification and left justification)
-              * Immutability of Strings.</t>
-  </si>
-  <si>
     <t>1. Working with Dictionaries in Python.
 2. Various Dictionary operations.
 3. Sets
@@ -159,12 +140,6 @@
             * List Comprehension.
             * Dictionary Comprehension.
             * Set Comprehension.</t>
-  </si>
-  <si>
-    <t>1. map and filter, differences between map and filter
-2. deque object and different operations that can be performed using deque's
-3. Namedtuples
-4. Exception Handling</t>
   </si>
   <si>
     <t>1.JSON file Parsing using requests module
@@ -187,6 +162,37 @@
        * Matching IP Address patterns.
        * Matching Email patterns.
        * Matching PAN Card patterns.</t>
+  </si>
+  <si>
+    <t>1. map and filter, differences between map and filter
+2. deque object and different operations that can be performed using deque's
+3. Namedtuples
+4. Exception Handling
+        * When to catch an exception and when not to catch exception.
+        * Inbuilt exceptions.
+        * Raising exceptions.
+        * Custom Exceptions.</t>
+  </si>
+  <si>
+    <t>1. Functions in Python.
+             * Calling functions using positional arguments.
+             * Calling functions using keyword arguments.
+             * Calling functions using combination of both positional and keyword arguments.
+             * Functions with default arguments.
+             * Keyword only arguments and positional only arguments.
+             * Functions with variable number of positional and keyword arguments (*args **kwargs)
+             * Behavior of mutable and immutable objects inside functions.
+             * Functions as first class objects.
+             * Documentation or Doc strings in functions.
+             * No-operation statement "Pass" in python.</t>
+  </si>
+  <si>
+    <t>1. Working with Strings in Python.
+              * Indexing.
+              * Slicing. (positive and negative indexing)
+              * Various in-built methods.
+              * Different ways of String formatting (.formt(), f strings, right justification and left justification)
+              * Immutability of Strings.</t>
   </si>
 </sst>
 </file>
@@ -609,9 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954EF45C-34FE-EE45-A042-4D212A913D71}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="45.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -655,7 +659,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="99" x14ac:dyDescent="0.2">
@@ -682,7 +686,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="99" x14ac:dyDescent="0.2">
@@ -691,7 +695,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -700,7 +704,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57" x14ac:dyDescent="0.2">
@@ -709,16 +713,16 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="141" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="169" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.2">
@@ -745,7 +749,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="99" x14ac:dyDescent="0.2">
@@ -754,7 +758,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="99" x14ac:dyDescent="0.2">
@@ -763,16 +767,16 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="113" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="127" x14ac:dyDescent="0.2">
@@ -781,7 +785,7 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="99" x14ac:dyDescent="0.2">
@@ -797,7 +801,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.2">
@@ -806,7 +810,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="57" x14ac:dyDescent="0.2">
@@ -815,7 +819,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.2">

--- a/Python-Topics.xlsx
+++ b/Python-Topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeep/Documents/python_tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBE3040-8B4A-7944-9FDF-63CE9F89778A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A111F4A-5B08-D548-8684-286F79CB0199}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,6 +174,14 @@
         * Custom Exceptions.</t>
   </si>
   <si>
+    <t>1. Working with Strings in Python.
+              * Indexing.
+              * Slicing. (positive and negative indexing)
+              * Various in-built methods.
+              * Different ways of String formatting (.formt(), f strings, right justification and left justification)
+              * Immutability of Strings.</t>
+  </si>
+  <si>
     <t>1. Functions in Python.
              * Calling functions using positional arguments.
              * Calling functions using keyword arguments.
@@ -182,17 +190,10 @@
              * Keyword only arguments and positional only arguments.
              * Functions with variable number of positional and keyword arguments (*args **kwargs)
              * Behavior of mutable and immutable objects inside functions.
+             * Function annotations.
              * Functions as first class objects.
-             * Documentation or Doc strings in functions.
+             * Documentation Strings.
              * No-operation statement "Pass" in python.</t>
-  </si>
-  <si>
-    <t>1. Working with Strings in Python.
-              * Indexing.
-              * Slicing. (positive and negative indexing)
-              * Various in-built methods.
-              * Different ways of String formatting (.formt(), f strings, right justification and left justification)
-              * Immutability of Strings.</t>
   </si>
 </sst>
 </file>
@@ -615,7 +616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954EF45C-34FE-EE45-A042-4D212A913D71}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="45.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -659,7 +662,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="99" x14ac:dyDescent="0.2">
@@ -716,13 +719,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="169" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="183" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.2">
